--- a/config_8.10/shoping_config_vivo.xlsx
+++ b/config_8.10/shoping_config_vivo.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5497" uniqueCount="1904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5541" uniqueCount="1913">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7208,12 +7208,48 @@
   <si>
     <t>爱心礼包</t>
   </si>
+  <si>
+    <t>十全十美</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非冲金鸡福袋礼包模板</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>百年好合</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>花好月圆</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>比翼双飞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>海枯石烂</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>两情相悦</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>一见钟情</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7283,6 +7319,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="15">
@@ -7413,7 +7455,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7649,6 +7691,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10141,13 +10201,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO697"/>
+  <dimension ref="A1:AO704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W651" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W672" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A671" sqref="A671:XFD682"/>
+      <selection pane="bottomRight" activeCell="A698" sqref="A698:XFD704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -52393,7 +52453,7 @@
       <c r="G655" s="75" t="s">
         <v>1894</v>
       </c>
-      <c r="H655" s="78" t="s">
+      <c r="H655" s="79" t="s">
         <v>1895</v>
       </c>
       <c r="K655" s="75" t="s">
@@ -52461,7 +52521,7 @@
       <c r="G656" s="75" t="s">
         <v>1896</v>
       </c>
-      <c r="H656" s="78"/>
+      <c r="H656" s="79"/>
       <c r="K656" s="75" t="s">
         <v>1617</v>
       </c>
@@ -52527,7 +52587,7 @@
       <c r="G657" s="75" t="s">
         <v>1897</v>
       </c>
-      <c r="H657" s="78"/>
+      <c r="H657" s="79"/>
       <c r="K657" s="75" t="s">
         <v>1618</v>
       </c>
@@ -52593,7 +52653,7 @@
       <c r="G658" s="75" t="s">
         <v>1898</v>
       </c>
-      <c r="H658" s="78"/>
+      <c r="H658" s="79"/>
       <c r="K658" s="75" t="s">
         <v>1620</v>
       </c>
@@ -52659,7 +52719,7 @@
       <c r="G659" s="75" t="s">
         <v>1899</v>
       </c>
-      <c r="H659" s="78"/>
+      <c r="H659" s="79"/>
       <c r="K659" s="75" t="s">
         <v>1621</v>
       </c>
@@ -52725,7 +52785,7 @@
       <c r="G660" s="75" t="s">
         <v>1900</v>
       </c>
-      <c r="H660" s="78"/>
+      <c r="H660" s="79"/>
       <c r="K660" s="75" t="s">
         <v>1622</v>
       </c>
@@ -52791,7 +52851,7 @@
       <c r="G661" s="75" t="s">
         <v>1901</v>
       </c>
-      <c r="H661" s="78"/>
+      <c r="H661" s="79"/>
       <c r="K661" s="75" t="s">
         <v>1624</v>
       </c>
@@ -54348,7 +54408,7 @@
       <c r="G683" s="74" t="s">
         <v>1655</v>
       </c>
-      <c r="H683" s="78" t="s">
+      <c r="H683" s="79" t="s">
         <v>1892</v>
       </c>
       <c r="K683" s="74" t="s">
@@ -54416,7 +54476,7 @@
       <c r="G684" s="74" t="s">
         <v>1655</v>
       </c>
-      <c r="H684" s="78"/>
+      <c r="H684" s="79"/>
       <c r="K684" s="74" t="s">
         <v>1584</v>
       </c>
@@ -54482,7 +54542,7 @@
       <c r="G685" s="74" t="s">
         <v>1655</v>
       </c>
-      <c r="H685" s="78"/>
+      <c r="H685" s="79"/>
       <c r="K685" s="74" t="s">
         <v>1586</v>
       </c>
@@ -54548,7 +54608,7 @@
       <c r="G686" s="74" t="s">
         <v>1655</v>
       </c>
-      <c r="H686" s="78"/>
+      <c r="H686" s="79"/>
       <c r="K686" s="74" t="s">
         <v>1588</v>
       </c>
@@ -54614,7 +54674,7 @@
       <c r="G687" s="74" t="s">
         <v>1655</v>
       </c>
-      <c r="H687" s="78"/>
+      <c r="H687" s="79"/>
       <c r="K687" s="74" t="s">
         <v>1590</v>
       </c>
@@ -54680,7 +54740,7 @@
       <c r="G688" s="74" t="s">
         <v>1655</v>
       </c>
-      <c r="H688" s="78"/>
+      <c r="H688" s="79"/>
       <c r="K688" s="74" t="s">
         <v>1592</v>
       </c>
@@ -54746,7 +54806,7 @@
       <c r="G689" s="74" t="s">
         <v>1657</v>
       </c>
-      <c r="H689" s="78" t="s">
+      <c r="H689" s="79" t="s">
         <v>1893</v>
       </c>
       <c r="K689" s="74" t="s">
@@ -54814,7 +54874,7 @@
       <c r="G690" s="74" t="s">
         <v>1657</v>
       </c>
-      <c r="H690" s="78"/>
+      <c r="H690" s="79"/>
       <c r="K690" s="74" t="s">
         <v>1659</v>
       </c>
@@ -54880,7 +54940,7 @@
       <c r="G691" s="74" t="s">
         <v>1657</v>
       </c>
-      <c r="H691" s="78"/>
+      <c r="H691" s="79"/>
       <c r="K691" s="74" t="s">
         <v>1660</v>
       </c>
@@ -54946,7 +55006,7 @@
       <c r="G692" s="74" t="s">
         <v>1657</v>
       </c>
-      <c r="H692" s="78"/>
+      <c r="H692" s="79"/>
       <c r="K692" s="74" t="s">
         <v>1661</v>
       </c>
@@ -55012,7 +55072,7 @@
       <c r="G693" s="74" t="s">
         <v>1657</v>
       </c>
-      <c r="H693" s="78"/>
+      <c r="H693" s="79"/>
       <c r="K693" s="74" t="s">
         <v>1662</v>
       </c>
@@ -55078,7 +55138,7 @@
       <c r="G694" s="74" t="s">
         <v>1657</v>
       </c>
-      <c r="H694" s="78"/>
+      <c r="H694" s="79"/>
       <c r="K694" s="74" t="s">
         <v>1663</v>
       </c>
@@ -55362,11 +55422,476 @@
         <v>1</v>
       </c>
     </row>
+    <row r="698" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A698" s="80">
+        <v>697</v>
+      </c>
+      <c r="B698" s="81">
+        <v>10614</v>
+      </c>
+      <c r="F698" s="82">
+        <v>1</v>
+      </c>
+      <c r="G698" s="82" t="s">
+        <v>1904</v>
+      </c>
+      <c r="H698" s="79" t="s">
+        <v>1905</v>
+      </c>
+      <c r="K698" s="82" t="s">
+        <v>1615</v>
+      </c>
+      <c r="M698" s="82">
+        <v>-31</v>
+      </c>
+      <c r="N698" s="82">
+        <v>0</v>
+      </c>
+      <c r="O698" s="82" t="s">
+        <v>1906</v>
+      </c>
+      <c r="P698" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q698" s="82">
+        <v>99800</v>
+      </c>
+      <c r="R698" s="82" t="s">
+        <v>1616</v>
+      </c>
+      <c r="S698" s="83" t="s">
+        <v>1139</v>
+      </c>
+      <c r="X698" s="82" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y698" s="82">
+        <v>99999999</v>
+      </c>
+      <c r="Z698" s="82">
+        <v>1628553600</v>
+      </c>
+      <c r="AA698" s="82">
+        <v>1629129599</v>
+      </c>
+      <c r="AB698" s="82">
+        <v>68</v>
+      </c>
+      <c r="AI698" s="82">
+        <v>1</v>
+      </c>
+      <c r="AJ698" s="82">
+        <v>1</v>
+      </c>
+      <c r="AM698" s="82">
+        <v>1</v>
+      </c>
+      <c r="AN698" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A699" s="80">
+        <v>698</v>
+      </c>
+      <c r="B699" s="81">
+        <v>10615</v>
+      </c>
+      <c r="F699" s="82">
+        <v>1</v>
+      </c>
+      <c r="G699" s="78" t="s">
+        <v>1907</v>
+      </c>
+      <c r="H699" s="84"/>
+      <c r="K699" s="82" t="s">
+        <v>1617</v>
+      </c>
+      <c r="M699" s="82">
+        <v>-31</v>
+      </c>
+      <c r="N699" s="82">
+        <v>0</v>
+      </c>
+      <c r="O699" s="82">
+        <v>0</v>
+      </c>
+      <c r="P699" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q699" s="82">
+        <v>49800</v>
+      </c>
+      <c r="R699" s="82" t="s">
+        <v>1616</v>
+      </c>
+      <c r="S699" s="83" t="s">
+        <v>1136</v>
+      </c>
+      <c r="X699" s="82" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y699" s="82">
+        <v>99999999</v>
+      </c>
+      <c r="Z699" s="82">
+        <v>1628553600</v>
+      </c>
+      <c r="AA699" s="82">
+        <v>1629129599</v>
+      </c>
+      <c r="AB699" s="82">
+        <v>68</v>
+      </c>
+      <c r="AI699" s="82">
+        <v>1</v>
+      </c>
+      <c r="AJ699" s="82">
+        <v>1</v>
+      </c>
+      <c r="AM699" s="82">
+        <v>1</v>
+      </c>
+      <c r="AN699" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A700" s="80">
+        <v>699</v>
+      </c>
+      <c r="B700" s="81">
+        <v>10616</v>
+      </c>
+      <c r="F700" s="82">
+        <v>1</v>
+      </c>
+      <c r="G700" s="78" t="s">
+        <v>1908</v>
+      </c>
+      <c r="H700" s="84"/>
+      <c r="K700" s="82" t="s">
+        <v>1618</v>
+      </c>
+      <c r="M700" s="82">
+        <v>-31</v>
+      </c>
+      <c r="N700" s="82">
+        <v>0</v>
+      </c>
+      <c r="O700" s="82">
+        <v>0</v>
+      </c>
+      <c r="P700" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q700" s="82">
+        <v>29800</v>
+      </c>
+      <c r="R700" s="82" t="s">
+        <v>1619</v>
+      </c>
+      <c r="S700" s="83" t="s">
+        <v>1132</v>
+      </c>
+      <c r="X700" s="82" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y700" s="82">
+        <v>99999999</v>
+      </c>
+      <c r="Z700" s="82">
+        <v>1628553600</v>
+      </c>
+      <c r="AA700" s="82">
+        <v>1629129599</v>
+      </c>
+      <c r="AB700" s="82">
+        <v>68</v>
+      </c>
+      <c r="AI700" s="82">
+        <v>1</v>
+      </c>
+      <c r="AJ700" s="82">
+        <v>1</v>
+      </c>
+      <c r="AM700" s="82">
+        <v>1</v>
+      </c>
+      <c r="AN700" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A701" s="80">
+        <v>700</v>
+      </c>
+      <c r="B701" s="81">
+        <v>10617</v>
+      </c>
+      <c r="F701" s="82">
+        <v>1</v>
+      </c>
+      <c r="G701" s="78" t="s">
+        <v>1909</v>
+      </c>
+      <c r="H701" s="84"/>
+      <c r="K701" s="82" t="s">
+        <v>1620</v>
+      </c>
+      <c r="M701" s="82">
+        <v>-31</v>
+      </c>
+      <c r="N701" s="82">
+        <v>0</v>
+      </c>
+      <c r="O701" s="82">
+        <v>0</v>
+      </c>
+      <c r="P701" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q701" s="82">
+        <v>19800</v>
+      </c>
+      <c r="R701" s="82" t="s">
+        <v>1619</v>
+      </c>
+      <c r="S701" s="83" t="s">
+        <v>1129</v>
+      </c>
+      <c r="X701" s="82" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y701" s="82">
+        <v>99999999</v>
+      </c>
+      <c r="Z701" s="82">
+        <v>1628553600</v>
+      </c>
+      <c r="AA701" s="82">
+        <v>1629129599</v>
+      </c>
+      <c r="AB701" s="82">
+        <v>68</v>
+      </c>
+      <c r="AI701" s="82">
+        <v>1</v>
+      </c>
+      <c r="AJ701" s="82">
+        <v>1</v>
+      </c>
+      <c r="AM701" s="82">
+        <v>1</v>
+      </c>
+      <c r="AN701" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A702" s="80">
+        <v>701</v>
+      </c>
+      <c r="B702" s="81">
+        <v>10618</v>
+      </c>
+      <c r="F702" s="82">
+        <v>1</v>
+      </c>
+      <c r="G702" s="78" t="s">
+        <v>1910</v>
+      </c>
+      <c r="H702" s="84"/>
+      <c r="K702" s="82" t="s">
+        <v>1621</v>
+      </c>
+      <c r="M702" s="82">
+        <v>-31</v>
+      </c>
+      <c r="N702" s="82">
+        <v>0</v>
+      </c>
+      <c r="O702" s="82">
+        <v>0</v>
+      </c>
+      <c r="P702" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q702" s="82">
+        <v>9800</v>
+      </c>
+      <c r="R702" s="82" t="s">
+        <v>1619</v>
+      </c>
+      <c r="S702" s="83" t="s">
+        <v>1126</v>
+      </c>
+      <c r="X702" s="82" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y702" s="82">
+        <v>99999999</v>
+      </c>
+      <c r="Z702" s="82">
+        <v>1628553600</v>
+      </c>
+      <c r="AA702" s="82">
+        <v>1629129599</v>
+      </c>
+      <c r="AB702" s="82">
+        <v>68</v>
+      </c>
+      <c r="AI702" s="82">
+        <v>1</v>
+      </c>
+      <c r="AJ702" s="82">
+        <v>1</v>
+      </c>
+      <c r="AM702" s="82">
+        <v>1</v>
+      </c>
+      <c r="AN702" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A703" s="80">
+        <v>702</v>
+      </c>
+      <c r="B703" s="81">
+        <v>10619</v>
+      </c>
+      <c r="F703" s="82">
+        <v>1</v>
+      </c>
+      <c r="G703" s="78" t="s">
+        <v>1911</v>
+      </c>
+      <c r="H703" s="84"/>
+      <c r="K703" s="82" t="s">
+        <v>1622</v>
+      </c>
+      <c r="M703" s="82">
+        <v>-31</v>
+      </c>
+      <c r="N703" s="82">
+        <v>0</v>
+      </c>
+      <c r="O703" s="82">
+        <v>0</v>
+      </c>
+      <c r="P703" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q703" s="82">
+        <v>4800</v>
+      </c>
+      <c r="R703" s="82" t="s">
+        <v>1623</v>
+      </c>
+      <c r="S703" s="83" t="s">
+        <v>1122</v>
+      </c>
+      <c r="X703" s="82" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y703" s="82">
+        <v>99999999</v>
+      </c>
+      <c r="Z703" s="82">
+        <v>1628553600</v>
+      </c>
+      <c r="AA703" s="82">
+        <v>1629129599</v>
+      </c>
+      <c r="AB703" s="82">
+        <v>68</v>
+      </c>
+      <c r="AI703" s="82">
+        <v>1</v>
+      </c>
+      <c r="AJ703" s="82">
+        <v>1</v>
+      </c>
+      <c r="AM703" s="82">
+        <v>1</v>
+      </c>
+      <c r="AN703" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A704" s="80">
+        <v>703</v>
+      </c>
+      <c r="B704" s="81">
+        <v>10620</v>
+      </c>
+      <c r="F704" s="82">
+        <v>1</v>
+      </c>
+      <c r="G704" s="78" t="s">
+        <v>1912</v>
+      </c>
+      <c r="H704" s="84"/>
+      <c r="K704" s="82" t="s">
+        <v>1624</v>
+      </c>
+      <c r="M704" s="82">
+        <v>-31</v>
+      </c>
+      <c r="N704" s="82">
+        <v>0</v>
+      </c>
+      <c r="O704" s="82">
+        <v>0</v>
+      </c>
+      <c r="P704" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q704" s="82">
+        <v>1800</v>
+      </c>
+      <c r="R704" s="82" t="s">
+        <v>1623</v>
+      </c>
+      <c r="S704" s="83" t="s">
+        <v>1119</v>
+      </c>
+      <c r="X704" s="82" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y704" s="82">
+        <v>99999999</v>
+      </c>
+      <c r="Z704" s="82">
+        <v>1628553600</v>
+      </c>
+      <c r="AA704" s="82">
+        <v>1629129599</v>
+      </c>
+      <c r="AB704" s="82">
+        <v>68</v>
+      </c>
+      <c r="AI704" s="82">
+        <v>1</v>
+      </c>
+      <c r="AJ704" s="82">
+        <v>1</v>
+      </c>
+      <c r="AM704" s="82">
+        <v>1</v>
+      </c>
+      <c r="AN704" s="82">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="H683:H688"/>
     <mergeCell ref="H689:H694"/>
     <mergeCell ref="H655:H661"/>
+    <mergeCell ref="H698:H704"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_8.10/shoping_config_vivo.xlsx
+++ b/config_8.10/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5541" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5586" uniqueCount="1942">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7242,6 +7242,122 @@
   </si>
   <si>
     <t>一见钟情</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆幻影</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_bg_light1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪耀风暴</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币使者</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能风暴</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>死灵之光</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙之力</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_bed_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿芒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_xy_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_bed_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒霜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_ss_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_bed_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金焰</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_cs_1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -7455,7 +7571,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7693,9 +7809,6 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7708,7 +7821,22 @@
     <xf numFmtId="49" fontId="10" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10203,7 +10331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO704"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="W672" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -52453,7 +52581,7 @@
       <c r="G655" s="75" t="s">
         <v>1894</v>
       </c>
-      <c r="H655" s="79" t="s">
+      <c r="H655" s="83" t="s">
         <v>1895</v>
       </c>
       <c r="K655" s="75" t="s">
@@ -52521,7 +52649,7 @@
       <c r="G656" s="75" t="s">
         <v>1896</v>
       </c>
-      <c r="H656" s="79"/>
+      <c r="H656" s="83"/>
       <c r="K656" s="75" t="s">
         <v>1617</v>
       </c>
@@ -52587,7 +52715,7 @@
       <c r="G657" s="75" t="s">
         <v>1897</v>
       </c>
-      <c r="H657" s="79"/>
+      <c r="H657" s="83"/>
       <c r="K657" s="75" t="s">
         <v>1618</v>
       </c>
@@ -52653,7 +52781,7 @@
       <c r="G658" s="75" t="s">
         <v>1898</v>
       </c>
-      <c r="H658" s="79"/>
+      <c r="H658" s="83"/>
       <c r="K658" s="75" t="s">
         <v>1620</v>
       </c>
@@ -52719,7 +52847,7 @@
       <c r="G659" s="75" t="s">
         <v>1899</v>
       </c>
-      <c r="H659" s="79"/>
+      <c r="H659" s="83"/>
       <c r="K659" s="75" t="s">
         <v>1621</v>
       </c>
@@ -52785,7 +52913,7 @@
       <c r="G660" s="75" t="s">
         <v>1900</v>
       </c>
-      <c r="H660" s="79"/>
+      <c r="H660" s="83"/>
       <c r="K660" s="75" t="s">
         <v>1622</v>
       </c>
@@ -52851,7 +52979,7 @@
       <c r="G661" s="75" t="s">
         <v>1901</v>
       </c>
-      <c r="H661" s="79"/>
+      <c r="H661" s="83"/>
       <c r="K661" s="75" t="s">
         <v>1624</v>
       </c>
@@ -54408,7 +54536,7 @@
       <c r="G683" s="74" t="s">
         <v>1655</v>
       </c>
-      <c r="H683" s="79" t="s">
+      <c r="H683" s="83" t="s">
         <v>1892</v>
       </c>
       <c r="K683" s="74" t="s">
@@ -54476,7 +54604,7 @@
       <c r="G684" s="74" t="s">
         <v>1655</v>
       </c>
-      <c r="H684" s="79"/>
+      <c r="H684" s="83"/>
       <c r="K684" s="74" t="s">
         <v>1584</v>
       </c>
@@ -54542,7 +54670,7 @@
       <c r="G685" s="74" t="s">
         <v>1655</v>
       </c>
-      <c r="H685" s="79"/>
+      <c r="H685" s="83"/>
       <c r="K685" s="74" t="s">
         <v>1586</v>
       </c>
@@ -54608,7 +54736,7 @@
       <c r="G686" s="74" t="s">
         <v>1655</v>
       </c>
-      <c r="H686" s="79"/>
+      <c r="H686" s="83"/>
       <c r="K686" s="74" t="s">
         <v>1588</v>
       </c>
@@ -54674,7 +54802,7 @@
       <c r="G687" s="74" t="s">
         <v>1655</v>
       </c>
-      <c r="H687" s="79"/>
+      <c r="H687" s="83"/>
       <c r="K687" s="74" t="s">
         <v>1590</v>
       </c>
@@ -54740,7 +54868,7 @@
       <c r="G688" s="74" t="s">
         <v>1655</v>
       </c>
-      <c r="H688" s="79"/>
+      <c r="H688" s="83"/>
       <c r="K688" s="74" t="s">
         <v>1592</v>
       </c>
@@ -54806,7 +54934,7 @@
       <c r="G689" s="74" t="s">
         <v>1657</v>
       </c>
-      <c r="H689" s="79" t="s">
+      <c r="H689" s="83" t="s">
         <v>1893</v>
       </c>
       <c r="K689" s="74" t="s">
@@ -54874,7 +55002,7 @@
       <c r="G690" s="74" t="s">
         <v>1657</v>
       </c>
-      <c r="H690" s="79"/>
+      <c r="H690" s="83"/>
       <c r="K690" s="74" t="s">
         <v>1659</v>
       </c>
@@ -54940,7 +55068,7 @@
       <c r="G691" s="74" t="s">
         <v>1657</v>
       </c>
-      <c r="H691" s="79"/>
+      <c r="H691" s="83"/>
       <c r="K691" s="74" t="s">
         <v>1660</v>
       </c>
@@ -55006,7 +55134,7 @@
       <c r="G692" s="74" t="s">
         <v>1657</v>
       </c>
-      <c r="H692" s="79"/>
+      <c r="H692" s="83"/>
       <c r="K692" s="74" t="s">
         <v>1661</v>
       </c>
@@ -55072,7 +55200,7 @@
       <c r="G693" s="74" t="s">
         <v>1657</v>
       </c>
-      <c r="H693" s="79"/>
+      <c r="H693" s="83"/>
       <c r="K693" s="74" t="s">
         <v>1662</v>
       </c>
@@ -55138,7 +55266,7 @@
       <c r="G694" s="74" t="s">
         <v>1657</v>
       </c>
-      <c r="H694" s="79"/>
+      <c r="H694" s="83"/>
       <c r="K694" s="74" t="s">
         <v>1663</v>
       </c>
@@ -55422,467 +55550,467 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A698" s="80">
+    <row r="698" spans="1:40" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A698" s="79">
         <v>697</v>
       </c>
-      <c r="B698" s="81">
+      <c r="B698" s="80">
         <v>10614</v>
       </c>
-      <c r="F698" s="82">
-        <v>1</v>
-      </c>
-      <c r="G698" s="82" t="s">
+      <c r="F698" s="81">
+        <v>1</v>
+      </c>
+      <c r="G698" s="81" t="s">
         <v>1904</v>
       </c>
-      <c r="H698" s="79" t="s">
+      <c r="H698" s="83" t="s">
         <v>1905</v>
       </c>
-      <c r="K698" s="82" t="s">
+      <c r="K698" s="81" t="s">
         <v>1615</v>
       </c>
-      <c r="M698" s="82">
+      <c r="M698" s="81">
         <v>-31</v>
       </c>
-      <c r="N698" s="82">
-        <v>0</v>
-      </c>
-      <c r="O698" s="82" t="s">
+      <c r="N698" s="81">
+        <v>0</v>
+      </c>
+      <c r="O698" s="81" t="s">
         <v>1906</v>
       </c>
-      <c r="P698" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q698" s="82">
+      <c r="P698" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q698" s="81">
         <v>99800</v>
       </c>
-      <c r="R698" s="82" t="s">
+      <c r="R698" s="81" t="s">
         <v>1616</v>
       </c>
-      <c r="S698" s="83" t="s">
+      <c r="S698" s="82" t="s">
         <v>1139</v>
       </c>
-      <c r="X698" s="82" t="s">
+      <c r="X698" s="81" t="s">
         <v>482</v>
       </c>
-      <c r="Y698" s="82">
+      <c r="Y698" s="81">
         <v>99999999</v>
       </c>
-      <c r="Z698" s="82">
+      <c r="Z698" s="81">
         <v>1628553600</v>
       </c>
-      <c r="AA698" s="82">
+      <c r="AA698" s="81">
         <v>1629129599</v>
       </c>
-      <c r="AB698" s="82">
+      <c r="AB698" s="81">
         <v>68</v>
       </c>
-      <c r="AI698" s="82">
-        <v>1</v>
-      </c>
-      <c r="AJ698" s="82">
-        <v>1</v>
-      </c>
-      <c r="AM698" s="82">
-        <v>1</v>
-      </c>
-      <c r="AN698" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="699" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A699" s="80">
+      <c r="AI698" s="81">
+        <v>1</v>
+      </c>
+      <c r="AJ698" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM698" s="81">
+        <v>1</v>
+      </c>
+      <c r="AN698" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:40" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A699" s="79">
         <v>698</v>
       </c>
-      <c r="B699" s="81">
+      <c r="B699" s="80">
         <v>10615</v>
       </c>
-      <c r="F699" s="82">
+      <c r="F699" s="81">
         <v>1</v>
       </c>
       <c r="G699" s="78" t="s">
         <v>1907</v>
       </c>
       <c r="H699" s="84"/>
-      <c r="K699" s="82" t="s">
+      <c r="K699" s="81" t="s">
         <v>1617</v>
       </c>
-      <c r="M699" s="82">
+      <c r="M699" s="81">
         <v>-31</v>
       </c>
-      <c r="N699" s="82">
-        <v>0</v>
-      </c>
-      <c r="O699" s="82">
-        <v>0</v>
-      </c>
-      <c r="P699" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q699" s="82">
+      <c r="N699" s="81">
+        <v>0</v>
+      </c>
+      <c r="O699" s="81">
+        <v>0</v>
+      </c>
+      <c r="P699" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q699" s="81">
         <v>49800</v>
       </c>
-      <c r="R699" s="82" t="s">
+      <c r="R699" s="81" t="s">
         <v>1616</v>
       </c>
-      <c r="S699" s="83" t="s">
+      <c r="S699" s="82" t="s">
         <v>1136</v>
       </c>
-      <c r="X699" s="82" t="s">
+      <c r="X699" s="81" t="s">
         <v>482</v>
       </c>
-      <c r="Y699" s="82">
+      <c r="Y699" s="81">
         <v>99999999</v>
       </c>
-      <c r="Z699" s="82">
+      <c r="Z699" s="81">
         <v>1628553600</v>
       </c>
-      <c r="AA699" s="82">
+      <c r="AA699" s="81">
         <v>1629129599</v>
       </c>
-      <c r="AB699" s="82">
+      <c r="AB699" s="81">
         <v>68</v>
       </c>
-      <c r="AI699" s="82">
-        <v>1</v>
-      </c>
-      <c r="AJ699" s="82">
-        <v>1</v>
-      </c>
-      <c r="AM699" s="82">
-        <v>1</v>
-      </c>
-      <c r="AN699" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="700" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A700" s="80">
+      <c r="AI699" s="81">
+        <v>1</v>
+      </c>
+      <c r="AJ699" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM699" s="81">
+        <v>1</v>
+      </c>
+      <c r="AN699" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:40" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A700" s="79">
         <v>699</v>
       </c>
-      <c r="B700" s="81">
+      <c r="B700" s="80">
         <v>10616</v>
       </c>
-      <c r="F700" s="82">
+      <c r="F700" s="81">
         <v>1</v>
       </c>
       <c r="G700" s="78" t="s">
         <v>1908</v>
       </c>
       <c r="H700" s="84"/>
-      <c r="K700" s="82" t="s">
+      <c r="K700" s="81" t="s">
         <v>1618</v>
       </c>
-      <c r="M700" s="82">
+      <c r="M700" s="81">
         <v>-31</v>
       </c>
-      <c r="N700" s="82">
-        <v>0</v>
-      </c>
-      <c r="O700" s="82">
-        <v>0</v>
-      </c>
-      <c r="P700" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q700" s="82">
+      <c r="N700" s="81">
+        <v>0</v>
+      </c>
+      <c r="O700" s="81">
+        <v>0</v>
+      </c>
+      <c r="P700" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q700" s="81">
         <v>29800</v>
       </c>
-      <c r="R700" s="82" t="s">
+      <c r="R700" s="81" t="s">
         <v>1619</v>
       </c>
-      <c r="S700" s="83" t="s">
+      <c r="S700" s="82" t="s">
         <v>1132</v>
       </c>
-      <c r="X700" s="82" t="s">
+      <c r="X700" s="81" t="s">
         <v>482</v>
       </c>
-      <c r="Y700" s="82">
+      <c r="Y700" s="81">
         <v>99999999</v>
       </c>
-      <c r="Z700" s="82">
+      <c r="Z700" s="81">
         <v>1628553600</v>
       </c>
-      <c r="AA700" s="82">
+      <c r="AA700" s="81">
         <v>1629129599</v>
       </c>
-      <c r="AB700" s="82">
+      <c r="AB700" s="81">
         <v>68</v>
       </c>
-      <c r="AI700" s="82">
-        <v>1</v>
-      </c>
-      <c r="AJ700" s="82">
-        <v>1</v>
-      </c>
-      <c r="AM700" s="82">
-        <v>1</v>
-      </c>
-      <c r="AN700" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="701" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A701" s="80">
+      <c r="AI700" s="81">
+        <v>1</v>
+      </c>
+      <c r="AJ700" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM700" s="81">
+        <v>1</v>
+      </c>
+      <c r="AN700" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:40" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A701" s="79">
         <v>700</v>
       </c>
-      <c r="B701" s="81">
+      <c r="B701" s="80">
         <v>10617</v>
       </c>
-      <c r="F701" s="82">
+      <c r="F701" s="81">
         <v>1</v>
       </c>
       <c r="G701" s="78" t="s">
         <v>1909</v>
       </c>
       <c r="H701" s="84"/>
-      <c r="K701" s="82" t="s">
+      <c r="K701" s="81" t="s">
         <v>1620</v>
       </c>
-      <c r="M701" s="82">
+      <c r="M701" s="81">
         <v>-31</v>
       </c>
-      <c r="N701" s="82">
-        <v>0</v>
-      </c>
-      <c r="O701" s="82">
-        <v>0</v>
-      </c>
-      <c r="P701" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q701" s="82">
+      <c r="N701" s="81">
+        <v>0</v>
+      </c>
+      <c r="O701" s="81">
+        <v>0</v>
+      </c>
+      <c r="P701" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q701" s="81">
         <v>19800</v>
       </c>
-      <c r="R701" s="82" t="s">
+      <c r="R701" s="81" t="s">
         <v>1619</v>
       </c>
-      <c r="S701" s="83" t="s">
+      <c r="S701" s="82" t="s">
         <v>1129</v>
       </c>
-      <c r="X701" s="82" t="s">
+      <c r="X701" s="81" t="s">
         <v>482</v>
       </c>
-      <c r="Y701" s="82">
+      <c r="Y701" s="81">
         <v>99999999</v>
       </c>
-      <c r="Z701" s="82">
+      <c r="Z701" s="81">
         <v>1628553600</v>
       </c>
-      <c r="AA701" s="82">
+      <c r="AA701" s="81">
         <v>1629129599</v>
       </c>
-      <c r="AB701" s="82">
+      <c r="AB701" s="81">
         <v>68</v>
       </c>
-      <c r="AI701" s="82">
-        <v>1</v>
-      </c>
-      <c r="AJ701" s="82">
-        <v>1</v>
-      </c>
-      <c r="AM701" s="82">
-        <v>1</v>
-      </c>
-      <c r="AN701" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="702" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A702" s="80">
+      <c r="AI701" s="81">
+        <v>1</v>
+      </c>
+      <c r="AJ701" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM701" s="81">
+        <v>1</v>
+      </c>
+      <c r="AN701" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:40" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A702" s="79">
         <v>701</v>
       </c>
-      <c r="B702" s="81">
+      <c r="B702" s="80">
         <v>10618</v>
       </c>
-      <c r="F702" s="82">
+      <c r="F702" s="81">
         <v>1</v>
       </c>
       <c r="G702" s="78" t="s">
         <v>1910</v>
       </c>
       <c r="H702" s="84"/>
-      <c r="K702" s="82" t="s">
+      <c r="K702" s="81" t="s">
         <v>1621</v>
       </c>
-      <c r="M702" s="82">
+      <c r="M702" s="81">
         <v>-31</v>
       </c>
-      <c r="N702" s="82">
-        <v>0</v>
-      </c>
-      <c r="O702" s="82">
-        <v>0</v>
-      </c>
-      <c r="P702" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q702" s="82">
+      <c r="N702" s="81">
+        <v>0</v>
+      </c>
+      <c r="O702" s="81">
+        <v>0</v>
+      </c>
+      <c r="P702" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q702" s="81">
         <v>9800</v>
       </c>
-      <c r="R702" s="82" t="s">
+      <c r="R702" s="81" t="s">
         <v>1619</v>
       </c>
-      <c r="S702" s="83" t="s">
+      <c r="S702" s="82" t="s">
         <v>1126</v>
       </c>
-      <c r="X702" s="82" t="s">
+      <c r="X702" s="81" t="s">
         <v>482</v>
       </c>
-      <c r="Y702" s="82">
+      <c r="Y702" s="81">
         <v>99999999</v>
       </c>
-      <c r="Z702" s="82">
+      <c r="Z702" s="81">
         <v>1628553600</v>
       </c>
-      <c r="AA702" s="82">
+      <c r="AA702" s="81">
         <v>1629129599</v>
       </c>
-      <c r="AB702" s="82">
+      <c r="AB702" s="81">
         <v>68</v>
       </c>
-      <c r="AI702" s="82">
-        <v>1</v>
-      </c>
-      <c r="AJ702" s="82">
-        <v>1</v>
-      </c>
-      <c r="AM702" s="82">
-        <v>1</v>
-      </c>
-      <c r="AN702" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="703" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A703" s="80">
+      <c r="AI702" s="81">
+        <v>1</v>
+      </c>
+      <c r="AJ702" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM702" s="81">
+        <v>1</v>
+      </c>
+      <c r="AN702" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:40" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A703" s="79">
         <v>702</v>
       </c>
-      <c r="B703" s="81">
+      <c r="B703" s="80">
         <v>10619</v>
       </c>
-      <c r="F703" s="82">
+      <c r="F703" s="81">
         <v>1</v>
       </c>
       <c r="G703" s="78" t="s">
         <v>1911</v>
       </c>
       <c r="H703" s="84"/>
-      <c r="K703" s="82" t="s">
+      <c r="K703" s="81" t="s">
         <v>1622</v>
       </c>
-      <c r="M703" s="82">
+      <c r="M703" s="81">
         <v>-31</v>
       </c>
-      <c r="N703" s="82">
-        <v>0</v>
-      </c>
-      <c r="O703" s="82">
-        <v>0</v>
-      </c>
-      <c r="P703" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q703" s="82">
+      <c r="N703" s="81">
+        <v>0</v>
+      </c>
+      <c r="O703" s="81">
+        <v>0</v>
+      </c>
+      <c r="P703" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q703" s="81">
         <v>4800</v>
       </c>
-      <c r="R703" s="82" t="s">
+      <c r="R703" s="81" t="s">
         <v>1623</v>
       </c>
-      <c r="S703" s="83" t="s">
+      <c r="S703" s="82" t="s">
         <v>1122</v>
       </c>
-      <c r="X703" s="82" t="s">
+      <c r="X703" s="81" t="s">
         <v>482</v>
       </c>
-      <c r="Y703" s="82">
+      <c r="Y703" s="81">
         <v>99999999</v>
       </c>
-      <c r="Z703" s="82">
+      <c r="Z703" s="81">
         <v>1628553600</v>
       </c>
-      <c r="AA703" s="82">
+      <c r="AA703" s="81">
         <v>1629129599</v>
       </c>
-      <c r="AB703" s="82">
+      <c r="AB703" s="81">
         <v>68</v>
       </c>
-      <c r="AI703" s="82">
-        <v>1</v>
-      </c>
-      <c r="AJ703" s="82">
-        <v>1</v>
-      </c>
-      <c r="AM703" s="82">
-        <v>1</v>
-      </c>
-      <c r="AN703" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="704" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A704" s="80">
+      <c r="AI703" s="81">
+        <v>1</v>
+      </c>
+      <c r="AJ703" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM703" s="81">
+        <v>1</v>
+      </c>
+      <c r="AN703" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:40" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A704" s="79">
         <v>703</v>
       </c>
-      <c r="B704" s="81">
+      <c r="B704" s="80">
         <v>10620</v>
       </c>
-      <c r="F704" s="82">
+      <c r="F704" s="81">
         <v>1</v>
       </c>
       <c r="G704" s="78" t="s">
         <v>1912</v>
       </c>
       <c r="H704" s="84"/>
-      <c r="K704" s="82" t="s">
+      <c r="K704" s="81" t="s">
         <v>1624</v>
       </c>
-      <c r="M704" s="82">
+      <c r="M704" s="81">
         <v>-31</v>
       </c>
-      <c r="N704" s="82">
-        <v>0</v>
-      </c>
-      <c r="O704" s="82">
-        <v>0</v>
-      </c>
-      <c r="P704" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q704" s="82">
+      <c r="N704" s="81">
+        <v>0</v>
+      </c>
+      <c r="O704" s="81">
+        <v>0</v>
+      </c>
+      <c r="P704" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q704" s="81">
         <v>1800</v>
       </c>
-      <c r="R704" s="82" t="s">
+      <c r="R704" s="81" t="s">
         <v>1623</v>
       </c>
-      <c r="S704" s="83" t="s">
+      <c r="S704" s="82" t="s">
         <v>1119</v>
       </c>
-      <c r="X704" s="82" t="s">
+      <c r="X704" s="81" t="s">
         <v>482</v>
       </c>
-      <c r="Y704" s="82">
+      <c r="Y704" s="81">
         <v>99999999</v>
       </c>
-      <c r="Z704" s="82">
+      <c r="Z704" s="81">
         <v>1628553600</v>
       </c>
-      <c r="AA704" s="82">
+      <c r="AA704" s="81">
         <v>1629129599</v>
       </c>
-      <c r="AB704" s="82">
+      <c r="AB704" s="81">
         <v>68</v>
       </c>
-      <c r="AI704" s="82">
-        <v>1</v>
-      </c>
-      <c r="AJ704" s="82">
-        <v>1</v>
-      </c>
-      <c r="AM704" s="82">
-        <v>1</v>
-      </c>
-      <c r="AN704" s="82">
+      <c r="AI704" s="81">
+        <v>1</v>
+      </c>
+      <c r="AJ704" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM704" s="81">
+        <v>1</v>
+      </c>
+      <c r="AN704" s="81">
         <v>1</v>
       </c>
     </row>
@@ -58927,10 +59055,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -59717,7 +59845,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -59753,7 +59881,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -59789,7 +59917,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -59825,7 +59953,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -59863,7 +59991,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -59900,6 +60028,456 @@
       <c r="V21" s="11" t="s">
         <v>1765</v>
       </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="85" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E22" s="85" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F22" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G22">
+        <v>259200</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="86" t="s">
+        <v>1915</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2">
+        <v>10000</v>
+      </c>
+      <c r="U22" s="87" t="s">
+        <v>1916</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>1917</v>
+      </c>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="85" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E23" s="85" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F23" s="2">
+        <v>20000</v>
+      </c>
+      <c r="G23">
+        <v>259200</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="86" t="s">
+        <v>1919</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2">
+        <v>20000</v>
+      </c>
+      <c r="U23" s="87" t="s">
+        <v>1920</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>1917</v>
+      </c>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="85" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E24" s="85" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F24" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G24">
+        <v>259200</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="86" t="s">
+        <v>1922</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U24" s="87" t="s">
+        <v>1923</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>1917</v>
+      </c>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <v>31</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="85" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E25" s="85" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F25" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G25">
+        <v>259200</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2">
+        <v>1</v>
+      </c>
+      <c r="P25" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="88" t="s">
+        <v>1925</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2">
+        <v>100000</v>
+      </c>
+      <c r="U25" s="87" t="s">
+        <v>1926</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>1917</v>
+      </c>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <v>32</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="85" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E26" s="85" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F26" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G26">
+        <v>259200</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
+      <c r="P26" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="88" t="s">
+        <v>1928</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2">
+        <v>150000</v>
+      </c>
+      <c r="U26" s="87" t="s">
+        <v>1929</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>1917</v>
+      </c>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <v>33</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="85" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E27" s="85" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F27" s="2">
+        <v>300000</v>
+      </c>
+      <c r="G27">
+        <v>259200</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
+      <c r="P27" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="88" t="s">
+        <v>1931</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2">
+        <v>300000</v>
+      </c>
+      <c r="U27" s="87" t="s">
+        <v>1932</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>1917</v>
+      </c>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="85" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E28" s="85" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F28" s="2">
+        <v>20000</v>
+      </c>
+      <c r="G28">
+        <v>259200</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2">
+        <v>1</v>
+      </c>
+      <c r="P28" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="88" t="s">
+        <v>1934</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2">
+        <v>20000</v>
+      </c>
+      <c r="U28" s="87" t="s">
+        <v>1935</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>1917</v>
+      </c>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="85" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E29" s="85" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F29" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G29">
+        <v>259200</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="88" t="s">
+        <v>1937</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U29" s="87" t="s">
+        <v>1938</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>1917</v>
+      </c>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="85" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E30" s="85" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F30" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G30">
+        <v>259200</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2">
+        <v>1</v>
+      </c>
+      <c r="P30" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="88" t="s">
+        <v>1940</v>
+      </c>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2">
+        <v>100000</v>
+      </c>
+      <c r="U30" s="87" t="s">
+        <v>1941</v>
+      </c>
+      <c r="V30" s="7" t="s">
+        <v>1917</v>
+      </c>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
